--- a/natmiOut/OldD2/LR-pairs_lrc2p/Vegfa-Nrp1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Vegfa-Nrp1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.24635843996545</v>
+        <v>2.24959</v>
       </c>
       <c r="H2">
-        <v>2.24635843996545</v>
+        <v>4.49918</v>
       </c>
       <c r="I2">
-        <v>0.04272463151077646</v>
+        <v>0.0392017419201376</v>
       </c>
       <c r="J2">
-        <v>0.04272463151077646</v>
+        <v>0.0281587997889107</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N2">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O2">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P2">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q2">
-        <v>237.7922201809848</v>
+        <v>242.19780163474</v>
       </c>
       <c r="R2">
-        <v>237.7922201809848</v>
+        <v>968.79120653896</v>
       </c>
       <c r="S2">
-        <v>0.0120395419566216</v>
+        <v>0.01078762757405224</v>
       </c>
       <c r="T2">
-        <v>0.0120395419566216</v>
+        <v>0.005792635930779898</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.24635843996545</v>
+        <v>2.24959</v>
       </c>
       <c r="H3">
-        <v>2.24635843996545</v>
+        <v>4.49918</v>
       </c>
       <c r="I3">
-        <v>0.04272463151077646</v>
+        <v>0.0392017419201376</v>
       </c>
       <c r="J3">
-        <v>0.04272463151077646</v>
+        <v>0.0281587997889107</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N3">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O3">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P3">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q3">
-        <v>57.66182208394115</v>
+        <v>61.66514769179334</v>
       </c>
       <c r="R3">
-        <v>57.66182208394115</v>
+        <v>369.99088615076</v>
       </c>
       <c r="S3">
-        <v>0.002919447599027773</v>
+        <v>0.002746600683854335</v>
       </c>
       <c r="T3">
-        <v>0.002919447599027773</v>
+        <v>0.002212264610487872</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.24635843996545</v>
+        <v>2.24959</v>
       </c>
       <c r="H4">
-        <v>2.24635843996545</v>
+        <v>4.49918</v>
       </c>
       <c r="I4">
-        <v>0.04272463151077646</v>
+        <v>0.0392017419201376</v>
       </c>
       <c r="J4">
-        <v>0.04272463151077646</v>
+        <v>0.0281587997889107</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N4">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O4">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P4">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q4">
-        <v>170.2606857125371</v>
+        <v>185.15009113993</v>
       </c>
       <c r="R4">
-        <v>170.2606857125371</v>
+        <v>1110.90054683958</v>
       </c>
       <c r="S4">
-        <v>0.008620385762154436</v>
+        <v>0.008246690164147651</v>
       </c>
       <c r="T4">
-        <v>0.008620385762154436</v>
+        <v>0.006642341899587838</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.24635843996545</v>
+        <v>2.24959</v>
       </c>
       <c r="H5">
-        <v>2.24635843996545</v>
+        <v>4.49918</v>
       </c>
       <c r="I5">
-        <v>0.04272463151077646</v>
+        <v>0.0392017419201376</v>
       </c>
       <c r="J5">
-        <v>0.04272463151077646</v>
+        <v>0.0281587997889107</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N5">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O5">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P5">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q5">
-        <v>157.2434526620051</v>
+        <v>160.33374355411</v>
       </c>
       <c r="R5">
-        <v>157.2434526620051</v>
+        <v>962.00246132466</v>
       </c>
       <c r="S5">
-        <v>0.00796131658254999</v>
+        <v>0.0071413559550957</v>
       </c>
       <c r="T5">
-        <v>0.00796131658254999</v>
+        <v>0.005752044388259862</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.24635843996545</v>
+        <v>2.24959</v>
       </c>
       <c r="H6">
-        <v>2.24635843996545</v>
+        <v>4.49918</v>
       </c>
       <c r="I6">
-        <v>0.04272463151077646</v>
+        <v>0.0392017419201376</v>
       </c>
       <c r="J6">
-        <v>0.04272463151077646</v>
+        <v>0.0281587997889107</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N6">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O6">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P6">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q6">
-        <v>178.1319836086016</v>
+        <v>187.2933332724067</v>
       </c>
       <c r="R6">
-        <v>178.1319836086016</v>
+        <v>1123.75999963444</v>
       </c>
       <c r="S6">
-        <v>0.009018913608021763</v>
+        <v>0.008342151385389632</v>
       </c>
       <c r="T6">
-        <v>0.009018913608021763</v>
+        <v>0.006719231664696042</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.24635843996545</v>
+        <v>2.24959</v>
       </c>
       <c r="H7">
-        <v>2.24635843996545</v>
+        <v>4.49918</v>
       </c>
       <c r="I7">
-        <v>0.04272463151077646</v>
+        <v>0.0392017419201376</v>
       </c>
       <c r="J7">
-        <v>0.04272463151077646</v>
+        <v>0.0281587997889107</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N7">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O7">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P7">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q7">
-        <v>42.76128956694433</v>
+        <v>43.495542576045</v>
       </c>
       <c r="R7">
-        <v>42.76128956694433</v>
+        <v>173.98217030418</v>
       </c>
       <c r="S7">
-        <v>0.002165026002400899</v>
+        <v>0.001937316157598038</v>
       </c>
       <c r="T7">
-        <v>0.002165026002400899</v>
+        <v>0.001040281295099195</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.755281683898</v>
+        <v>18.182671</v>
       </c>
       <c r="H8">
-        <v>16.755281683898</v>
+        <v>54.548013</v>
       </c>
       <c r="I8">
-        <v>0.3186772079948267</v>
+        <v>0.3168543494417961</v>
       </c>
       <c r="J8">
-        <v>0.3186772079948267</v>
+        <v>0.341397004998666</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N8">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O8">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P8">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q8">
-        <v>1773.65978665149</v>
+        <v>1957.602471582706</v>
       </c>
       <c r="R8">
-        <v>1773.65978665149</v>
+        <v>11745.61482949623</v>
       </c>
       <c r="S8">
-        <v>0.08980130385220537</v>
+        <v>0.08719272536307504</v>
       </c>
       <c r="T8">
-        <v>0.08980130385220537</v>
+        <v>0.07022985967586294</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.755281683898</v>
+        <v>18.182671</v>
       </c>
       <c r="H9">
-        <v>16.755281683898</v>
+        <v>54.548013</v>
       </c>
       <c r="I9">
-        <v>0.3186772079948267</v>
+        <v>0.3168543494417961</v>
       </c>
       <c r="J9">
-        <v>0.3186772079948267</v>
+        <v>0.341397004998666</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N9">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O9">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P9">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q9">
-        <v>430.0916782622207</v>
+        <v>498.4184196437074</v>
       </c>
       <c r="R9">
-        <v>430.0916782622207</v>
+        <v>4485.765776793366</v>
       </c>
       <c r="S9">
-        <v>0.02177576205685251</v>
+        <v>0.02219983934979191</v>
       </c>
       <c r="T9">
-        <v>0.02177576205685251</v>
+        <v>0.02682147385353162</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.755281683898</v>
+        <v>18.182671</v>
       </c>
       <c r="H10">
-        <v>16.755281683898</v>
+        <v>54.548013</v>
       </c>
       <c r="I10">
-        <v>0.3186772079948267</v>
+        <v>0.3168543494417961</v>
       </c>
       <c r="J10">
-        <v>0.3186772079948267</v>
+        <v>0.341397004998666</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N10">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O10">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P10">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q10">
-        <v>1269.951267817732</v>
+        <v>1496.505226649017</v>
       </c>
       <c r="R10">
-        <v>1269.951267817732</v>
+        <v>13468.54703984115</v>
       </c>
       <c r="S10">
-        <v>0.06429828343466987</v>
+        <v>0.06665519232110417</v>
       </c>
       <c r="T10">
-        <v>0.06429828343466987</v>
+        <v>0.08053168628264752</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>16.755281683898</v>
+        <v>18.182671</v>
       </c>
       <c r="H11">
-        <v>16.755281683898</v>
+        <v>54.548013</v>
       </c>
       <c r="I11">
-        <v>0.3186772079948267</v>
+        <v>0.3168543494417961</v>
       </c>
       <c r="J11">
-        <v>0.3186772079948267</v>
+        <v>0.341397004998666</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N11">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O11">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P11">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q11">
-        <v>1172.857499242685</v>
+        <v>1295.923127877859</v>
       </c>
       <c r="R11">
-        <v>1172.857499242685</v>
+        <v>11663.30815090073</v>
       </c>
       <c r="S11">
-        <v>0.059382376179184</v>
+        <v>0.05772115177672192</v>
       </c>
       <c r="T11">
-        <v>0.059382376179184</v>
+        <v>0.06973772822322645</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>16.755281683898</v>
+        <v>18.182671</v>
       </c>
       <c r="H12">
-        <v>16.755281683898</v>
+        <v>54.548013</v>
       </c>
       <c r="I12">
-        <v>0.3186772079948267</v>
+        <v>0.3168543494417961</v>
       </c>
       <c r="J12">
-        <v>0.3186772079948267</v>
+        <v>0.341397004998666</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N12">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O12">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P12">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q12">
-        <v>1328.662206873595</v>
+        <v>1513.828323999273</v>
       </c>
       <c r="R12">
-        <v>1328.662206873595</v>
+        <v>13624.45491599345</v>
       </c>
       <c r="S12">
-        <v>0.06727084836357179</v>
+        <v>0.06742677291094551</v>
       </c>
       <c r="T12">
-        <v>0.06727084836357179</v>
+        <v>0.0814638970203129</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>16.755281683898</v>
+        <v>18.182671</v>
       </c>
       <c r="H13">
-        <v>16.755281683898</v>
+        <v>54.548013</v>
       </c>
       <c r="I13">
-        <v>0.3186772079948267</v>
+        <v>0.3168543494417961</v>
       </c>
       <c r="J13">
-        <v>0.3186772079948267</v>
+        <v>0.341397004998666</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N13">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O13">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P13">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q13">
-        <v>318.950635443514</v>
+        <v>351.5596800424605</v>
       </c>
       <c r="R13">
-        <v>318.950635443514</v>
+        <v>2109.358080254763</v>
       </c>
       <c r="S13">
-        <v>0.0161486341083432</v>
+        <v>0.01565866772015757</v>
       </c>
       <c r="T13">
-        <v>0.0161486341083432</v>
+        <v>0.01261235994308468</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.3879676874018</v>
+        <v>14.63643766666667</v>
       </c>
       <c r="H14">
-        <v>13.3879676874018</v>
+        <v>43.909313</v>
       </c>
       <c r="I14">
-        <v>0.2546325537126753</v>
+        <v>0.2550570779736964</v>
       </c>
       <c r="J14">
-        <v>0.2546325537126753</v>
+        <v>0.2748130889707933</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N14">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O14">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P14">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q14">
-        <v>1417.206846182358</v>
+        <v>1575.804047239973</v>
       </c>
       <c r="R14">
-        <v>1417.206846182358</v>
+        <v>9454.824283439835</v>
       </c>
       <c r="S14">
-        <v>0.07175390882358353</v>
+        <v>0.07018720680605361</v>
       </c>
       <c r="T14">
-        <v>0.07175390882358353</v>
+        <v>0.05653267132669973</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.3879676874018</v>
+        <v>14.63643766666667</v>
       </c>
       <c r="H15">
-        <v>13.3879676874018</v>
+        <v>43.909313</v>
       </c>
       <c r="I15">
-        <v>0.2546325537126753</v>
+        <v>0.2550570779736964</v>
       </c>
       <c r="J15">
-        <v>0.2546325537126753</v>
+        <v>0.2748130889707933</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N15">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O15">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P15">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q15">
-        <v>343.6560244002684</v>
+        <v>401.2100384499962</v>
       </c>
       <c r="R15">
-        <v>343.6560244002684</v>
+        <v>3610.890346049966</v>
       </c>
       <c r="S15">
-        <v>0.01739948061069352</v>
+        <v>0.01787012286881522</v>
       </c>
       <c r="T15">
-        <v>0.01739948061069352</v>
+        <v>0.0215903829632811</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.3879676874018</v>
+        <v>14.63643766666667</v>
       </c>
       <c r="H16">
-        <v>13.3879676874018</v>
+        <v>43.909313</v>
       </c>
       <c r="I16">
-        <v>0.2546325537126753</v>
+        <v>0.2550570779736964</v>
       </c>
       <c r="J16">
-        <v>0.2546325537126753</v>
+        <v>0.2748130889707933</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N16">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O16">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P16">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q16">
-        <v>1014.728779788758</v>
+        <v>1204.636297257384</v>
       </c>
       <c r="R16">
-        <v>1014.728779788758</v>
+        <v>10841.72667531645</v>
       </c>
       <c r="S16">
-        <v>0.05137623808533297</v>
+        <v>0.05365518451978369</v>
       </c>
       <c r="T16">
-        <v>0.05137623808533297</v>
+        <v>0.06482529472526481</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.3879676874018</v>
+        <v>14.63643766666667</v>
       </c>
       <c r="H17">
-        <v>13.3879676874018</v>
+        <v>43.909313</v>
       </c>
       <c r="I17">
-        <v>0.2546325537126753</v>
+        <v>0.2550570779736964</v>
       </c>
       <c r="J17">
-        <v>0.2546325537126753</v>
+        <v>0.2748130889707933</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N17">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O17">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P17">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q17">
-        <v>937.1479750697296</v>
+        <v>1043.174464410426</v>
       </c>
       <c r="R17">
-        <v>937.1479750697296</v>
+        <v>9388.57017969383</v>
       </c>
       <c r="S17">
-        <v>0.04744828218865851</v>
+        <v>0.04646358282719829</v>
       </c>
       <c r="T17">
-        <v>0.04744828218865851</v>
+        <v>0.05613652208491231</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.3879676874018</v>
+        <v>14.63643766666667</v>
       </c>
       <c r="H18">
-        <v>13.3879676874018</v>
+        <v>43.909313</v>
       </c>
       <c r="I18">
-        <v>0.2546325537126753</v>
+        <v>0.2550570779736964</v>
       </c>
       <c r="J18">
-        <v>0.2546325537126753</v>
+        <v>0.2748130889707933</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N18">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O18">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P18">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q18">
-        <v>1061.640563774597</v>
+        <v>1218.580807090984</v>
       </c>
       <c r="R18">
-        <v>1061.640563774597</v>
+        <v>10967.22726381885</v>
       </c>
       <c r="S18">
-        <v>0.05375140574694787</v>
+        <v>0.05427628090369905</v>
       </c>
       <c r="T18">
-        <v>0.05375140574694787</v>
+        <v>0.06557569296730728</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.3879676874018</v>
+        <v>14.63643766666667</v>
       </c>
       <c r="H19">
-        <v>13.3879676874018</v>
+        <v>43.909313</v>
       </c>
       <c r="I19">
-        <v>0.2546325537126753</v>
+        <v>0.2550570779736964</v>
       </c>
       <c r="J19">
-        <v>0.2546325537126753</v>
+        <v>0.2748130889707933</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N19">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O19">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P19">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q19">
-        <v>254.8510303648101</v>
+        <v>282.9937000485105</v>
       </c>
       <c r="R19">
-        <v>254.8510303648101</v>
+        <v>1697.962200291063</v>
       </c>
       <c r="S19">
-        <v>0.01290323825745892</v>
+        <v>0.01260470004814649</v>
       </c>
       <c r="T19">
-        <v>0.01290323825745892</v>
+        <v>0.01015252490332814</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.2252887397804</v>
+        <v>10.37924066666667</v>
       </c>
       <c r="H20">
-        <v>10.2252887397804</v>
+        <v>31.137722</v>
       </c>
       <c r="I20">
-        <v>0.1944799573059804</v>
+        <v>0.1808704314749192</v>
       </c>
       <c r="J20">
-        <v>0.1944799573059804</v>
+        <v>0.1948801514233172</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N20">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O20">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P20">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q20">
-        <v>1082.41590841638</v>
+        <v>1117.461080510031</v>
       </c>
       <c r="R20">
-        <v>1082.41590841638</v>
+        <v>6704.766483060183</v>
       </c>
       <c r="S20">
-        <v>0.05480327209180828</v>
+        <v>0.049772350878808</v>
       </c>
       <c r="T20">
-        <v>0.05480327209180828</v>
+        <v>0.04008941346197212</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.2252887397804</v>
+        <v>10.37924066666667</v>
       </c>
       <c r="H21">
-        <v>10.2252887397804</v>
+        <v>31.137722</v>
       </c>
       <c r="I21">
-        <v>0.1944799573059804</v>
+        <v>0.1808704314749192</v>
       </c>
       <c r="J21">
-        <v>0.1944799573059804</v>
+        <v>0.1948801514233172</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N21">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O21">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P21">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q21">
-        <v>262.4731519156901</v>
+        <v>284.5129150817116</v>
       </c>
       <c r="R21">
-        <v>262.4731519156901</v>
+        <v>2560.616235735404</v>
       </c>
       <c r="S21">
-        <v>0.01328915017728727</v>
+        <v>0.01267236674814317</v>
       </c>
       <c r="T21">
-        <v>0.01328915017728727</v>
+        <v>0.01531054112789656</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.2252887397804</v>
+        <v>10.37924066666667</v>
       </c>
       <c r="H22">
-        <v>10.2252887397804</v>
+        <v>31.137722</v>
       </c>
       <c r="I22">
-        <v>0.1944799573059804</v>
+        <v>0.1808704314749192</v>
       </c>
       <c r="J22">
-        <v>0.1944799573059804</v>
+        <v>0.1948801514233172</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N22">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O22">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P22">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q22">
-        <v>775.0164183372585</v>
+        <v>854.2522661447647</v>
       </c>
       <c r="R22">
-        <v>775.0164183372585</v>
+        <v>7688.270395302881</v>
       </c>
       <c r="S22">
-        <v>0.03923947839227152</v>
+        <v>0.03804888087034584</v>
       </c>
       <c r="T22">
-        <v>0.03923947839227152</v>
+        <v>0.04597002020330772</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.2252887397804</v>
+        <v>10.37924066666667</v>
       </c>
       <c r="H23">
-        <v>10.2252887397804</v>
+        <v>31.137722</v>
       </c>
       <c r="I23">
-        <v>0.1944799573059804</v>
+        <v>0.1808704314749192</v>
       </c>
       <c r="J23">
-        <v>0.1944799573059804</v>
+        <v>0.1948801514233172</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N23">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O23">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P23">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q23">
-        <v>715.7627550898432</v>
+        <v>739.7536934889126</v>
       </c>
       <c r="R23">
-        <v>715.7627550898432</v>
+        <v>6657.783241400214</v>
       </c>
       <c r="S23">
-        <v>0.03623943505945002</v>
+        <v>0.03294904944646423</v>
       </c>
       <c r="T23">
-        <v>0.03623943505945002</v>
+        <v>0.03980848934545754</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.2252887397804</v>
+        <v>10.37924066666667</v>
       </c>
       <c r="H24">
-        <v>10.2252887397804</v>
+        <v>31.137722</v>
       </c>
       <c r="I24">
-        <v>0.1944799573059804</v>
+        <v>0.1808704314749192</v>
       </c>
       <c r="J24">
-        <v>0.1944799573059804</v>
+        <v>0.1948801514233172</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N24">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O24">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P24">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q24">
-        <v>810.8460937408527</v>
+        <v>864.1408351284084</v>
       </c>
       <c r="R24">
-        <v>810.8460937408527</v>
+        <v>7777.267516155676</v>
       </c>
       <c r="S24">
-        <v>0.04105355321770267</v>
+        <v>0.03848932334635456</v>
       </c>
       <c r="T24">
-        <v>0.04105355321770267</v>
+        <v>0.0465021554214107</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10.2252887397804</v>
+        <v>10.37924066666667</v>
       </c>
       <c r="H25">
-        <v>10.2252887397804</v>
+        <v>31.137722</v>
       </c>
       <c r="I25">
-        <v>0.1944799573059804</v>
+        <v>0.1808704314749192</v>
       </c>
       <c r="J25">
-        <v>0.1944799573059804</v>
+        <v>0.1948801514233172</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N25">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O25">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P25">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q25">
-        <v>194.6468225765831</v>
+        <v>200.681326074537</v>
       </c>
       <c r="R25">
-        <v>194.6468225765831</v>
+        <v>1204.087956447222</v>
       </c>
       <c r="S25">
-        <v>0.009855068367460617</v>
+        <v>0.008938460184803437</v>
       </c>
       <c r="T25">
-        <v>0.009855068367460617</v>
+        <v>0.007199531863272573</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.60953585566889</v>
+        <v>1.810577666666667</v>
       </c>
       <c r="H26">
-        <v>1.60953585566889</v>
+        <v>5.431733</v>
       </c>
       <c r="I26">
-        <v>0.03061257950351559</v>
+        <v>0.03155143755752453</v>
       </c>
       <c r="J26">
-        <v>0.03061257950351559</v>
+        <v>0.03399532404878652</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N26">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O26">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P26">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q26">
-        <v>170.3802464339988</v>
+        <v>194.9323790360127</v>
       </c>
       <c r="R26">
-        <v>170.3802464339988</v>
+        <v>1169.594274216076</v>
       </c>
       <c r="S26">
-        <v>0.008626439182747029</v>
+        <v>0.008682398820183457</v>
       </c>
       <c r="T26">
-        <v>0.008626439182747029</v>
+        <v>0.006993285830351952</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.60953585566889</v>
+        <v>1.810577666666667</v>
       </c>
       <c r="H27">
-        <v>1.60953585566889</v>
+        <v>5.431733</v>
       </c>
       <c r="I27">
-        <v>0.03061257950351559</v>
+        <v>0.03155143755752453</v>
       </c>
       <c r="J27">
-        <v>0.03061257950351559</v>
+        <v>0.03399532404878652</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N27">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O27">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P27">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q27">
-        <v>41.31520976177379</v>
+        <v>49.63106131448956</v>
       </c>
       <c r="R27">
-        <v>41.31520976177379</v>
+        <v>446.6795518304061</v>
       </c>
       <c r="S27">
-        <v>0.002091810240868739</v>
+        <v>0.002210595645178924</v>
       </c>
       <c r="T27">
-        <v>0.002091810240868739</v>
+        <v>0.002670804610955579</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.60953585566889</v>
+        <v>1.810577666666667</v>
       </c>
       <c r="H28">
-        <v>1.60953585566889</v>
+        <v>5.431733</v>
       </c>
       <c r="I28">
-        <v>0.03061257950351559</v>
+        <v>0.03155143755752453</v>
       </c>
       <c r="J28">
-        <v>0.03061257950351559</v>
+        <v>0.03399532404878652</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N28">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O28">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P28">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q28">
-        <v>121.9932997288336</v>
+        <v>149.0176521051637</v>
       </c>
       <c r="R28">
-        <v>121.9932997288336</v>
+        <v>1341.158868946473</v>
       </c>
       <c r="S28">
-        <v>0.006176583276753711</v>
+        <v>0.006637330818115927</v>
       </c>
       <c r="T28">
-        <v>0.006176583276753711</v>
+        <v>0.008019111858888497</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.60953585566889</v>
+        <v>1.810577666666667</v>
       </c>
       <c r="H29">
-        <v>1.60953585566889</v>
+        <v>5.431733</v>
       </c>
       <c r="I29">
-        <v>0.03061257950351559</v>
+        <v>0.03155143755752453</v>
       </c>
       <c r="J29">
-        <v>0.03061257950351559</v>
+        <v>0.03399532404878652</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N29">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O29">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P29">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q29">
-        <v>112.6663361580726</v>
+        <v>129.0442681964857</v>
       </c>
       <c r="R29">
-        <v>112.6663361580726</v>
+        <v>1161.398413768371</v>
       </c>
       <c r="S29">
-        <v>0.005704354331868161</v>
+        <v>0.005747704960465365</v>
       </c>
       <c r="T29">
-        <v>0.005704354331868161</v>
+        <v>0.006944280806986142</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.60953585566889</v>
+        <v>1.810577666666667</v>
       </c>
       <c r="H30">
-        <v>1.60953585566889</v>
+        <v>5.431733</v>
       </c>
       <c r="I30">
-        <v>0.03061257950351559</v>
+        <v>0.03155143755752453</v>
       </c>
       <c r="J30">
-        <v>0.03061257950351559</v>
+        <v>0.03399532404878652</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N30">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O30">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P30">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q30">
-        <v>127.633154869032</v>
+        <v>150.7426359196905</v>
       </c>
       <c r="R30">
-        <v>127.633154869032</v>
+        <v>1356.683723277214</v>
       </c>
       <c r="S30">
-        <v>0.006462132032461555</v>
+        <v>0.006714162576442315</v>
       </c>
       <c r="T30">
-        <v>0.006462132032461555</v>
+        <v>0.008111938701668845</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.60953585566889</v>
+        <v>1.810577666666667</v>
       </c>
       <c r="H31">
-        <v>1.60953585566889</v>
+        <v>5.431733</v>
       </c>
       <c r="I31">
-        <v>0.03061257950351559</v>
+        <v>0.03155143755752453</v>
       </c>
       <c r="J31">
-        <v>0.03061257950351559</v>
+        <v>0.03399532404878652</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N31">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O31">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P31">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q31">
-        <v>30.6388453276831</v>
+        <v>35.00729376808051</v>
       </c>
       <c r="R31">
-        <v>30.6388453276831</v>
+        <v>210.043762608483</v>
       </c>
       <c r="S31">
-        <v>0.0015512604388164</v>
+        <v>0.00155924473713854</v>
       </c>
       <c r="T31">
-        <v>0.0015512604388164</v>
+        <v>0.001255902239935507</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>8.353164181774471</v>
+        <v>10.126433</v>
       </c>
       <c r="H32">
-        <v>8.353164181774471</v>
+        <v>20.252866</v>
       </c>
       <c r="I32">
-        <v>0.1588730699722258</v>
+        <v>0.1764649616319262</v>
       </c>
       <c r="J32">
-        <v>0.1588730699722258</v>
+        <v>0.1267556307695262</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N32">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O32">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P32">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q32">
-        <v>884.2388734502143</v>
+        <v>1090.243026952238</v>
       </c>
       <c r="R32">
-        <v>884.2388734502143</v>
+        <v>4360.972107808951</v>
       </c>
       <c r="S32">
-        <v>0.04476946726212103</v>
+        <v>0.04856004332237988</v>
       </c>
       <c r="T32">
-        <v>0.04476946726212103</v>
+        <v>0.02607530245352943</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>8.353164181774471</v>
+        <v>10.126433</v>
       </c>
       <c r="H33">
-        <v>8.353164181774471</v>
+        <v>20.252866</v>
       </c>
       <c r="I33">
-        <v>0.1588730699722258</v>
+        <v>0.1764649616319262</v>
       </c>
       <c r="J33">
-        <v>0.1588730699722258</v>
+        <v>0.1267556307695262</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N33">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O33">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P33">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q33">
-        <v>214.4175472258281</v>
+        <v>277.5830202552687</v>
       </c>
       <c r="R33">
-        <v>214.4175472258281</v>
+        <v>1665.498121531612</v>
       </c>
       <c r="S33">
-        <v>0.01085607028731414</v>
+        <v>0.01236370529865669</v>
       </c>
       <c r="T33">
-        <v>0.01085607028731414</v>
+        <v>0.009958414358339312</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>8.353164181774471</v>
+        <v>10.126433</v>
       </c>
       <c r="H34">
-        <v>8.353164181774471</v>
+        <v>20.252866</v>
       </c>
       <c r="I34">
-        <v>0.1588730699722258</v>
+        <v>0.1764649616319262</v>
       </c>
       <c r="J34">
-        <v>0.1588730699722258</v>
+        <v>0.1267556307695262</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N34">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O34">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P34">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q34">
-        <v>633.1204478125046</v>
+        <v>833.445202402391</v>
       </c>
       <c r="R34">
-        <v>633.1204478125046</v>
+        <v>5000.671214414346</v>
       </c>
       <c r="S34">
-        <v>0.03205521269464661</v>
+        <v>0.03712212243964464</v>
       </c>
       <c r="T34">
-        <v>0.03205521269464661</v>
+        <v>0.0299002174659689</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>8.353164181774471</v>
+        <v>10.126433</v>
       </c>
       <c r="H35">
-        <v>8.353164181774471</v>
+        <v>20.252866</v>
       </c>
       <c r="I35">
-        <v>0.1588730699722258</v>
+        <v>0.1764649616319262</v>
       </c>
       <c r="J35">
-        <v>0.1588730699722258</v>
+        <v>0.1267556307695262</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N35">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O35">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P35">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q35">
-        <v>584.7154012584973</v>
+        <v>721.7354770157571</v>
       </c>
       <c r="R35">
-        <v>584.7154012584973</v>
+        <v>4330.412862094542</v>
       </c>
       <c r="S35">
-        <v>0.02960444038403174</v>
+        <v>0.03214650785628831</v>
       </c>
       <c r="T35">
-        <v>0.02960444038403174</v>
+        <v>0.02589258136404388</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>8.353164181774471</v>
+        <v>10.126433</v>
       </c>
       <c r="H36">
-        <v>8.353164181774471</v>
+        <v>20.252866</v>
       </c>
       <c r="I36">
-        <v>0.1588730699722258</v>
+        <v>0.1764649616319262</v>
       </c>
       <c r="J36">
-        <v>0.1588730699722258</v>
+        <v>0.1267556307695262</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N36">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O36">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P36">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q36">
-        <v>662.3901504920532</v>
+        <v>843.0929150332714</v>
       </c>
       <c r="R36">
-        <v>662.3901504920532</v>
+        <v>5058.557490199628</v>
       </c>
       <c r="S36">
-        <v>0.03353715273961552</v>
+        <v>0.03755183703697354</v>
       </c>
       <c r="T36">
-        <v>0.03353715273961552</v>
+        <v>0.0302463334492165</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>8.353164181774471</v>
+        <v>10.126433</v>
       </c>
       <c r="H37">
-        <v>8.353164181774471</v>
+        <v>20.252866</v>
       </c>
       <c r="I37">
-        <v>0.1588730699722258</v>
+        <v>0.1764649616319262</v>
       </c>
       <c r="J37">
-        <v>0.1588730699722258</v>
+        <v>0.1267556307695262</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N37">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O37">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P37">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q37">
-        <v>159.0093842648636</v>
+        <v>195.7933213140915</v>
       </c>
       <c r="R37">
-        <v>159.0093842648636</v>
+        <v>783.1732852563662</v>
       </c>
       <c r="S37">
-        <v>0.008050726604496704</v>
+        <v>0.008720745677983087</v>
       </c>
       <c r="T37">
-        <v>0.008050726604496704</v>
+        <v>0.004682781678428169</v>
       </c>
     </row>
   </sheetData>
